--- a/src/Track/TrackModel/redline_layout _new.xlsx
+++ b/src/Track/TrackModel/redline_layout _new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjgranieri/Desktop/ECE 1140/ECE1140ChooChoo/src/Track/TrackModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C31EBB9-EFE3-4680-AFB4-9E9526893B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268757A-FA0A-3048-965A-3E7B0F2A97DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="936" windowWidth="17280" windowHeight="11304" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="1460" yWindow="940" windowWidth="17280" windowHeight="11300" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
   <si>
     <t>Section</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Traversal Time</t>
+  </si>
+  <si>
+    <t>Anuj Ave</t>
   </si>
 </sst>
 </file>
@@ -682,31 +685,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -768,7 +771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -828,7 +831,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -881,7 +884,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -934,7 +937,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -987,7 +990,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1040,7 +1043,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -1093,7 +1096,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -1150,7 +1153,7 @@
         <v>6.7499801961959385</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -1203,7 +1206,7 @@
         <v>6.7499801961959385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
@@ -1258,7 +1261,7 @@
         <v>6.7499801961959385</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1316,7 +1319,7 @@
         <v>6.7499801961959385</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -1369,7 +1372,7 @@
         <v>6.7499801961959385</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -1421,7 +1424,7 @@
         <v>6.7499801961959385</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
         <v>15</v>
@@ -1474,7 +1477,7 @@
         <v>6.2999815164495434</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
@@ -1527,7 +1530,7 @@
         <v>5.3999841569567515</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -1581,7 +1584,7 @@
         <v>5.3999841569567515</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -1640,7 +1643,7 @@
         <v>4.4999867974639587</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -1693,7 +1696,7 @@
         <v>13.09087068353152</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="6" t="s">
         <v>16</v>
@@ -1747,7 +1750,7 @@
         <v>20.571368216978097</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -1800,7 +1803,7 @@
         <v>20.571368216978097</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
@@ -1853,7 +1856,7 @@
         <v>10.285684108489049</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1910,7 +1913,7 @@
         <v>6.54543534176576</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
@@ -1963,7 +1966,7 @@
         <v>6.54543534176576</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
         <v>17</v>
@@ -2016,7 +2019,7 @@
         <v>6.54543534176576</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
         <v>18</v>
@@ -2069,7 +2072,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
         <v>18</v>
@@ -2126,7 +2129,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="6" t="s">
         <v>18</v>
@@ -2179,7 +2182,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="6" t="s">
         <v>18</v>
@@ -2234,7 +2237,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="6" t="s">
         <v>18</v>
@@ -2292,7 +2295,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="6" t="s">
         <v>18</v>
@@ -2345,7 +2348,7 @@
         <v>3.0857052325467151</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="6" t="s">
         <v>18</v>
@@ -2398,7 +2401,7 @@
         <v>3.0857052325467151</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -2451,7 +2454,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
         <v>18</v>
@@ -2506,7 +2509,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="6" t="s">
         <v>18</v>
@@ -2561,7 +2564,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
         <v>18</v>
@@ -2614,7 +2617,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -2671,7 +2674,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>18</v>
@@ -2724,7 +2727,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
         <v>18</v>
@@ -2777,7 +2780,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
         <v>18</v>
@@ -2832,7 +2835,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="6" t="s">
         <v>18</v>
@@ -2890,7 +2893,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="6" t="s">
         <v>18</v>
@@ -2943,7 +2946,7 @@
         <v>3.0857052325467151</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
         <v>18</v>
@@ -2996,7 +2999,7 @@
         <v>3.0857052325467151</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
         <v>18</v>
@@ -3049,7 +3052,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
@@ -3104,7 +3107,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>18</v>
@@ -3159,7 +3162,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
         <v>18</v>
@@ -3216,7 +3219,7 @@
         <v>2.5714210271222622</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
         <v>19</v>
@@ -3269,7 +3272,7 @@
         <v>3.8571315406833935</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
         <v>19</v>
@@ -3322,7 +3325,7 @@
         <v>3.8571315406833935</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="6" t="s">
         <v>19</v>
@@ -3379,7 +3382,7 @@
         <v>3.8571315406833935</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
         <v>20</v>
@@ -3432,7 +3435,7 @@
         <v>2.9999911983093059</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
         <v>20</v>
@@ -3485,7 +3488,7 @@
         <v>2.9999911983093059</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
         <v>20</v>
@@ -3538,7 +3541,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
         <v>20</v>
@@ -3593,7 +3596,7 @@
         <v>2.8276280676428085</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
         <v>20</v>
@@ -3651,7 +3654,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
         <v>20</v>
@@ -3704,7 +3707,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
         <v>21</v>
@@ -3757,7 +3760,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
         <v>21</v>
@@ -3810,7 +3813,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="6" t="s">
         <v>21</v>
@@ -3863,7 +3866,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="6" t="s">
         <v>22</v>
@@ -3915,7 +3918,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="6" t="s">
         <v>22</v>
@@ -3968,7 +3971,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="6" t="s">
         <v>22</v>
@@ -4025,7 +4028,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="6" t="s">
         <v>23</v>
@@ -4078,7 +4081,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="6" t="s">
         <v>23</v>
@@ -4130,7 +4133,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="6" t="s">
         <v>23</v>
@@ -4183,7 +4186,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="6" t="s">
         <v>24</v>
@@ -4236,7 +4239,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="6" t="s">
         <v>24</v>
@@ -4289,7 +4292,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="6" t="s">
         <v>24</v>
@@ -4344,7 +4347,7 @@
         <v>4.90907650632432</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="6" t="s">
         <v>25</v>
@@ -4402,7 +4405,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="6" t="s">
         <v>26</v>
@@ -4454,7 +4457,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="6" t="s">
         <v>26</v>
@@ -4507,7 +4510,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="6" t="s">
         <v>26</v>
@@ -4560,7 +4563,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="6" t="s">
         <v>27</v>
@@ -4615,7 +4618,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="6" t="s">
         <v>28</v>
@@ -4672,7 +4675,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="6" t="s">
         <v>29</v>
@@ -4725,7 +4728,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="6" t="s">
         <v>29</v>
@@ -4742,8 +4745,12 @@
       <c r="F75" s="6">
         <v>55</v>
       </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="K75" s="4">
         <v>0</v>
@@ -4778,7 +4785,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="6" t="s">
         <v>29</v>
@@ -4831,7 +4838,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="6" t="s">
         <v>30</v>
@@ -4885,7 +4892,7 @@
         <v>3.27271767088288</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>40</v>
@@ -4940,7 +4947,7 @@
         <v>23.999929586474448</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4956,7 +4963,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4972,7 +4979,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4988,7 +4995,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5004,7 +5011,7 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5020,7 +5027,7 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5036,7 +5043,7 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5052,7 +5059,7 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5068,7 +5075,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5084,7 +5091,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5100,7 +5107,7 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5116,7 +5123,7 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5132,7 +5139,7 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5148,7 +5155,7 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5164,7 +5171,7 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5180,7 +5187,7 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5196,7 +5203,7 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5212,7 +5219,7 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5228,7 +5235,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5244,7 +5251,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5260,7 +5267,7 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5276,7 +5283,7 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5292,7 +5299,7 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5308,7 +5315,7 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5324,7 +5331,7 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5340,7 +5347,7 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -5356,7 +5363,7 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5372,7 +5379,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5388,7 +5395,7 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5404,7 +5411,7 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5420,7 +5427,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5436,7 +5443,7 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5452,7 +5459,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5468,7 +5475,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5484,7 +5491,7 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5500,7 +5507,7 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5516,7 +5523,7 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5532,7 +5539,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -5548,7 +5555,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -5564,7 +5571,7 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5580,7 +5587,7 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5596,7 +5603,7 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -5612,7 +5619,7 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5628,7 +5635,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -5644,7 +5651,7 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -5660,7 +5667,7 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -5676,7 +5683,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5692,7 +5699,7 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5708,7 +5715,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5724,7 +5731,7 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5740,7 +5747,7 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -5756,7 +5763,7 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5772,7 +5779,7 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -5788,7 +5795,7 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -5804,7 +5811,7 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -5820,7 +5827,7 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5836,7 +5843,7 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -5852,7 +5859,7 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -5868,7 +5875,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5884,7 +5891,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5900,7 +5907,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5916,7 +5923,7 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5932,7 +5939,7 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5948,7 +5955,7 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5964,7 +5971,7 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5980,7 +5987,7 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5996,7 +6003,7 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -6012,7 +6019,7 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6028,7 +6035,7 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -6044,7 +6051,7 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6060,7 +6067,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6076,7 +6083,7 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6092,7 +6099,7 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6108,7 +6115,7 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -6120,7 +6127,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -6146,12 +6153,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6159,7 +6166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6167,7 +6174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6183,7 +6190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6207,7 +6214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6215,7 +6222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6231,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6239,7 +6246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -6247,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -6279,7 +6286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6287,7 +6294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6311,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6319,7 +6326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
